--- a/examples/jon+jane.xlsx
+++ b/examples/jon+jane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44774331-1297-4241-8A50-0F91B3B4B8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AEA0CC-505D-4F7D-8E6E-032FD8997678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1310" windowWidth="14400" windowHeight="8170" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-21240" yWindow="15780" windowWidth="15045" windowHeight="11700" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Jon" sheetId="1" r:id="rId1"/>
@@ -428,30 +428,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,168 +480,167 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2025</v>
-      </c>
-      <c r="B2" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7000</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2026</v>
-      </c>
-      <c r="B3" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7000</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2027</v>
-      </c>
-      <c r="B4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7000</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2028</v>
-      </c>
-      <c r="B5" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7000</v>
-      </c>
+        <v>2023</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2029</v>
-      </c>
-      <c r="B6" s="1">
-        <v>120000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7000</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2030</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7000</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2031</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>2026</v>
+      </c>
+      <c r="B8" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7000</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2032</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+        <v>2027</v>
+      </c>
+      <c r="B9" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7000</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2033</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+        <v>2028</v>
+      </c>
+      <c r="B10" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7000</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2034</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+        <v>2029</v>
+      </c>
+      <c r="B11" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7000</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -652,9 +651,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -665,9 +664,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -678,9 +677,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -691,9 +690,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -704,9 +703,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -717,9 +716,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -730,9 +729,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -743,9 +742,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -756,9 +755,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -769,9 +768,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -782,9 +781,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -795,9 +794,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -808,9 +807,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -821,9 +820,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -834,9 +833,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -847,9 +846,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -860,9 +859,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -873,9 +872,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -886,9 +885,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -899,8 +898,73 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>2050</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2051</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2055</v>
       </c>
     </row>
@@ -912,26 +976,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -960,94 +1024,83 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2025</v>
-      </c>
-      <c r="B2" s="1">
-        <v>80000</v>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>6000</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2026</v>
-      </c>
-      <c r="B3" s="1">
-        <v>80000</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>6000</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2027</v>
-      </c>
-      <c r="B4" s="1">
-        <v>80000</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>6000</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2028</v>
-      </c>
-      <c r="B5" s="1">
-        <v>80000</v>
-      </c>
+        <v>2023</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>7000</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2029</v>
-      </c>
-      <c r="B6" s="1">
-        <v>80000</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>3000</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>7500</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="B7" s="1">
         <v>80000</v>
@@ -1062,9 +1115,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="B8" s="1">
         <v>80000</v>
@@ -1079,9 +1132,9 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2032</v>
+        <v>2027</v>
       </c>
       <c r="B9" s="1">
         <v>80000</v>
@@ -1096,74 +1149,94 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2033</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>2028</v>
+      </c>
+      <c r="B10" s="1">
+        <v>80000</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>3000</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2034</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>2029</v>
+      </c>
+      <c r="B11" s="1">
+        <v>80000</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>3000</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2035</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>2030</v>
+      </c>
+      <c r="B12" s="1">
+        <v>80000</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>3000</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2036</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>2031</v>
+      </c>
+      <c r="B13" s="1">
+        <v>80000</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>3000</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2037</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>2032</v>
+      </c>
+      <c r="B14" s="1">
+        <v>80000</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>3000</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1174,9 +1247,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1187,9 +1260,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1200,9 +1273,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1213,9 +1286,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1226,9 +1299,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1239,9 +1312,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1252,9 +1325,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1265,9 +1338,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1278,9 +1351,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1291,9 +1364,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1304,9 +1377,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1317,9 +1390,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1330,9 +1403,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1343,9 +1416,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1356,9 +1429,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1369,9 +1442,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1382,9 +1455,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1395,9 +1468,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1408,13 +1481,78 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>2052</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2053</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2054</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2055</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2056</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2057</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2058</v>
       </c>
     </row>

--- a/examples/jon+jane.xlsx
+++ b/examples/jon+jane.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\Owl\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AEA0CC-505D-4F7D-8E6E-032FD8997678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DE5D4-AA08-4FA2-86B1-F370E8BA39F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21240" yWindow="15780" windowWidth="15045" windowHeight="11700" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Jon" sheetId="1" r:id="rId1"/>
     <sheet name="Jane" sheetId="2" r:id="rId2"/>
+    <sheet name="Debts" sheetId="3" r:id="rId3"/>
+    <sheet name="Fixed Assets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>year</t>
   </si>
@@ -64,6 +66,33 @@
   </si>
   <si>
     <t>Roth IRA ctrb</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>yod</t>
+  </si>
+  <si>
+    <t>commission</t>
   </si>
 </sst>
 </file>
@@ -73,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +116,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,10 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,28 +469,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -493,7 +532,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -505,7 +544,7 @@
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -518,7 +557,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -531,7 +570,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -544,7 +583,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -563,7 +602,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2026</v>
       </c>
@@ -581,7 +620,7 @@
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2027</v>
       </c>
@@ -600,7 +639,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2028</v>
       </c>
@@ -619,7 +658,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2029</v>
       </c>
@@ -638,7 +677,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -651,7 +690,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2031</v>
       </c>
@@ -664,7 +703,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2032</v>
       </c>
@@ -677,7 +716,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2033</v>
       </c>
@@ -690,7 +729,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2034</v>
       </c>
@@ -703,7 +742,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2035</v>
       </c>
@@ -716,7 +755,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2036</v>
       </c>
@@ -729,7 +768,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -742,7 +781,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2038</v>
       </c>
@@ -755,7 +794,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2039</v>
       </c>
@@ -768,7 +807,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2040</v>
       </c>
@@ -781,7 +820,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2041</v>
       </c>
@@ -794,7 +833,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2042</v>
       </c>
@@ -807,7 +846,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2043</v>
       </c>
@@ -820,7 +859,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2044</v>
       </c>
@@ -833,7 +872,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2045</v>
       </c>
@@ -846,7 +885,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2046</v>
       </c>
@@ -859,7 +898,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2047</v>
       </c>
@@ -872,7 +911,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2048</v>
       </c>
@@ -885,7 +924,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2049</v>
       </c>
@@ -898,7 +937,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2050</v>
       </c>
@@ -911,7 +950,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2051</v>
       </c>
@@ -924,7 +963,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2052</v>
       </c>
@@ -937,7 +976,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2053</v>
       </c>
@@ -950,7 +989,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2054</v>
       </c>
@@ -963,7 +1002,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2055</v>
       </c>
@@ -982,20 +1021,20 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1039,7 +1078,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1053,7 +1092,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1068,7 +1107,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2023</v>
       </c>
@@ -1083,7 +1122,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -1098,7 +1137,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -1115,7 +1154,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2026</v>
       </c>
@@ -1132,7 +1171,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2027</v>
       </c>
@@ -1149,7 +1188,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2028</v>
       </c>
@@ -1166,7 +1205,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2029</v>
       </c>
@@ -1183,7 +1222,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2030</v>
       </c>
@@ -1200,7 +1239,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2031</v>
       </c>
@@ -1217,7 +1256,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2032</v>
       </c>
@@ -1234,7 +1273,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2033</v>
       </c>
@@ -1247,7 +1286,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2034</v>
       </c>
@@ -1260,7 +1299,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2035</v>
       </c>
@@ -1273,7 +1312,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2036</v>
       </c>
@@ -1286,7 +1325,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -1299,7 +1338,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2038</v>
       </c>
@@ -1312,7 +1351,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2039</v>
       </c>
@@ -1325,7 +1364,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2040</v>
       </c>
@@ -1338,7 +1377,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2041</v>
       </c>
@@ -1351,7 +1390,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2042</v>
       </c>
@@ -1364,7 +1403,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2043</v>
       </c>
@@ -1377,7 +1416,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2044</v>
       </c>
@@ -1390,7 +1429,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2045</v>
       </c>
@@ -1403,7 +1442,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2046</v>
       </c>
@@ -1416,7 +1455,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2047</v>
       </c>
@@ -1429,7 +1468,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2048</v>
       </c>
@@ -1442,7 +1481,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2049</v>
       </c>
@@ -1455,7 +1494,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2050</v>
       </c>
@@ -1468,7 +1507,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2051</v>
       </c>
@@ -1481,7 +1520,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2052</v>
       </c>
@@ -1494,7 +1533,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2053</v>
       </c>
@@ -1507,7 +1546,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2054</v>
       </c>
@@ -1520,7 +1559,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2055</v>
       </c>
@@ -1533,7 +1572,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2056</v>
       </c>
@@ -1546,14 +1585,87 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2057</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CBBF82-1B1F-4944-81F7-996E5CAB86D9}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA369D17-637D-4893-A7DC-912619ADF143}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
